--- a/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_24.07.24_output.xlsx
+++ b/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700567.1207268</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700570.0508907</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700567.1207268.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700570.0508907.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>3118.8</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.650000000000091</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700571.241706</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700572.6349802</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700571.241706.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700572.6349802.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>3124.55</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>3123</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.550000000000182</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700573.5216765</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700574.050975</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700573.5216765.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700574.050975.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3126.75</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>3134</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-7.25</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -695,44 +729,50 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700574.1427324</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700574.1427324.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700574.1427324.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3130</v>
       </c>
-      <c r="J6" t="n">
-        <v>3130</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3132.95</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.949999999999818</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -793,19 +833,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-7.349999999999909</v>
+        <v>-4.400000000000091</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.837499999999977</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.23</v>
+        <v>-0.14</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="3">
